--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Projects/cloud-gov/cg-site/_assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC43D78C-D526-5B4E-8427-F40D56079E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CC62A2-CA76-6647-8B57-70FB1B3E5486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <definedName name="AWS_RDS_Instances">Worksheet!$E$13:$K$43</definedName>
     <definedName name="AwsElasticCachePrices">'AWS Service Prices'!$A$44:$E$48</definedName>
     <definedName name="AwsOpensearchPrices">'AWS Service Prices'!$A$33:$E$43</definedName>
-    <definedName name="AwsRdsServicePrices">'AWS Service Prices'!$A$3:$E$32</definedName>
+    <definedName name="AWSRdsServicePrices">'AWS Service Prices'!$A$3:$E$32</definedName>
     <definedName name="CloudGovNoCostServices">'AWS Service Prices'!$A$49:$B$56</definedName>
-    <definedName name="MeteredServices">'AWS Service Prices'!$K:$O</definedName>
+    <definedName name="MeteredServices">'AWS Service Prices'!$J:$N</definedName>
     <definedName name="PricePerCredit">'Cloud.gov Tiers'!$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -106,9 +106,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Column 1</t>
-  </si>
-  <si>
     <t>Units</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>AWS RDS</t>
   </si>
   <si>
-    <t>Expected AWS RDS Storage</t>
-  </si>
-  <si>
     <t>GB-month</t>
   </si>
   <si>
@@ -169,18 +163,12 @@
     <t>micro-psql</t>
   </si>
   <si>
-    <t>AWS RDSmicro-psql</t>
-  </si>
-  <si>
     <t>db.t3.micro</t>
   </si>
   <si>
     <t>micro-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSmicro-psql-redundant</t>
-  </si>
-  <si>
     <t>AWS OpenSearch</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>small-psql</t>
   </si>
   <si>
-    <t>AWS RDSsmall-psql</t>
-  </si>
-  <si>
     <t>db.t3.small</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>small-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSsmall-psql-redundant</t>
-  </si>
-  <si>
     <t>OpenSearch Instances</t>
   </si>
   <si>
@@ -217,9 +199,6 @@
     <t>medium-psql</t>
   </si>
   <si>
-    <t>AWS RDSmedium-psql</t>
-  </si>
-  <si>
     <t>db.t3.medium</t>
   </si>
   <si>
@@ -232,15 +211,9 @@
     <t>medium-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSmedium-psql-redundant</t>
-  </si>
-  <si>
     <t>es-dev</t>
   </si>
   <si>
-    <t>AWS OpenSearches-dev</t>
-  </si>
-  <si>
     <t>t3.small.search</t>
   </si>
   <si>
@@ -250,18 +223,12 @@
     <t>medium-gp-psql</t>
   </si>
   <si>
-    <t>AWS RDSmedium-gp-psql</t>
-  </si>
-  <si>
     <t>db.m5.large</t>
   </si>
   <si>
     <t>es-medium</t>
   </si>
   <si>
-    <t>AWS OpenSearches-medium</t>
-  </si>
-  <si>
     <t>c5.large.search</t>
   </si>
   <si>
@@ -271,30 +238,18 @@
     <t>medium-gp-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSmedium-gp-psql-redundant</t>
-  </si>
-  <si>
     <t>es-medium-ha</t>
   </si>
   <si>
-    <t>AWS OpenSearches-medium-ha</t>
-  </si>
-  <si>
     <t>ElasticCache</t>
   </si>
   <si>
     <t>large-gp-psql</t>
   </si>
   <si>
-    <t>AWS RDSlarge-gp-psql</t>
-  </si>
-  <si>
     <t>es-large</t>
   </si>
   <si>
-    <t>AWS OpenSearches-large</t>
-  </si>
-  <si>
     <t>c5.xlarge.search</t>
   </si>
   <si>
@@ -304,60 +259,36 @@
     <t>large-gp-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSlarge-gp-psql-redundant</t>
-  </si>
-  <si>
     <t>es-large-ha</t>
   </si>
   <si>
-    <t>AWS OpenSearches-large-ha</t>
-  </si>
-  <si>
     <t>xlarge-gp-psql</t>
   </si>
   <si>
-    <t>AWS RDSxlarge-gp-psql</t>
-  </si>
-  <si>
     <t>db.m5.xlarge</t>
   </si>
   <si>
     <t>es-xlarge</t>
   </si>
   <si>
-    <t>AWS OpenSearches-xlarge</t>
-  </si>
-  <si>
     <t>c5.2xlarge.search</t>
   </si>
   <si>
     <t>xlarge-gp-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSxlarge-gp-psql-redundant</t>
-  </si>
-  <si>
     <t>es-xlarge-ha</t>
   </si>
   <si>
-    <t>AWS OpenSearches-xlarge-ha</t>
-  </si>
-  <si>
     <t>2xlarge-gp-psql</t>
   </si>
   <si>
-    <t>AWS RDS2xlarge-gp-psql</t>
-  </si>
-  <si>
     <t>db.m5.2xlarge</t>
   </si>
   <si>
     <t>es-2xlarge-gp</t>
   </si>
   <si>
-    <t>AWS OpenSearches-2xlarge-gp</t>
-  </si>
-  <si>
     <t>m5.2xlarge.search</t>
   </si>
   <si>
@@ -367,33 +298,21 @@
     <t>2xlarge-gp-psql-redundant</t>
   </si>
   <si>
-    <t>AWS RDS2xlarge-gp-psql-redundant</t>
-  </si>
-  <si>
     <t>es-2xlarge-gp-ha</t>
   </si>
   <si>
-    <t>AWS OpenSearches-2xlarge-gp-ha</t>
-  </si>
-  <si>
     <t>cdn-route</t>
   </si>
   <si>
     <t>xlarge-gp-psql-m6</t>
   </si>
   <si>
-    <t>AWS RDSxlarge-gp-psql-m6</t>
-  </si>
-  <si>
     <t>db.m6g.xlarge</t>
   </si>
   <si>
     <t>es-4xlarge-gp</t>
   </si>
   <si>
-    <t>AWS OpenSearches-4xlarge-gp</t>
-  </si>
-  <si>
     <t>m5.4xlarge.search</t>
   </si>
   <si>
@@ -406,33 +325,21 @@
     <t>xlarge-gp-psql-m6-redundant</t>
   </si>
   <si>
-    <t>AWS RDSxlarge-gp-psql-m6-redundant</t>
-  </si>
-  <si>
     <t>es-4xlarge-gp-ha</t>
   </si>
   <si>
-    <t>AWS OpenSearches-4xlarge-gp-ha</t>
-  </si>
-  <si>
     <t>domain</t>
   </si>
   <si>
     <t>micro-mysql</t>
   </si>
   <si>
-    <t>AWS RDSmicro-mysql</t>
-  </si>
-  <si>
     <t>domain-with-cdn</t>
   </si>
   <si>
     <t>micro-mysql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSmicro-mysql-redundant</t>
-  </si>
-  <si>
     <t>ElastiCache Instances</t>
   </si>
   <si>
@@ -445,24 +352,15 @@
     <t>small-mysql</t>
   </si>
   <si>
-    <t>AWS RDSsmall-mysql</t>
-  </si>
-  <si>
     <t>space-auditor</t>
   </si>
   <si>
     <t>small-mysql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSsmall-mysql-redundant</t>
-  </si>
-  <si>
     <t>redis-dev</t>
   </si>
   <si>
-    <t>AWS ElastiCacheredis-dev</t>
-  </si>
-  <si>
     <t>cache.t3.micro</t>
   </si>
   <si>
@@ -472,18 +370,12 @@
     <t>medium-mysql</t>
   </si>
   <si>
-    <t>AWS RDSmedium-mysql</t>
-  </si>
-  <si>
     <t>AWS ElastiCache</t>
   </si>
   <si>
     <t>redis-3node</t>
   </si>
   <si>
-    <t>AWS ElastiCacheredis-3node</t>
-  </si>
-  <si>
     <t>Autoscaler</t>
   </si>
   <si>
@@ -493,72 +385,42 @@
     <t>medium-mysql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSmedium-mysql-redundant</t>
-  </si>
-  <si>
     <t>redis-5node</t>
   </si>
   <si>
-    <t>AWS ElastiCacheredis-5node</t>
-  </si>
-  <si>
     <t>These do not incur any additional costs</t>
   </si>
   <si>
     <t>medium-gp-mysql</t>
   </si>
   <si>
-    <t>AWS RDSmedium-gp-mysql</t>
-  </si>
-  <si>
     <t>redis-3node-large</t>
   </si>
   <si>
-    <t>AWS ElastiCacheredis-3node-large</t>
-  </si>
-  <si>
     <t>cache.t3.small</t>
   </si>
   <si>
     <t>medium-gp-mysql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSmedium-gp-mysql-redundant</t>
-  </si>
-  <si>
     <t>redis-5node-large</t>
   </si>
   <si>
-    <t>AWS ElastiCacheredis-5node-large</t>
-  </si>
-  <si>
     <t>large-gp-mysql</t>
   </si>
   <si>
-    <t>AWS RDSlarge-gp-mysql</t>
-  </si>
-  <si>
     <t>large-gp-mysql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSlarge-gp-mysql-redundant</t>
-  </si>
-  <si>
     <t>Simple Email Service</t>
   </si>
   <si>
     <t>xlarge-gp-mysql</t>
   </si>
   <si>
-    <t>AWS RDSxlarge-gp-mysql</t>
-  </si>
-  <si>
     <t>xlarge-gp-mysql-redundant</t>
   </si>
   <si>
-    <t>AWS RDSxlarge-gp-mysql-redundant</t>
-  </si>
-  <si>
     <t>AWS SES</t>
   </si>
   <si>
@@ -574,9 +436,6 @@
     <t>medium-oracle-se2</t>
   </si>
   <si>
-    <t>AWS RDSmedium-oracle-se2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Expected GB of monthly email attachment data </t>
   </si>
   <si>
@@ -589,9 +448,6 @@
     <t>large-gp-sqlserver-se</t>
   </si>
   <si>
-    <t>AWS RDSlarge-gp-sqlserver-se</t>
-  </si>
-  <si>
     <t>Model Variables</t>
   </si>
   <si>
@@ -731,33 +587,6 @@
   </si>
   <si>
     <t>GB</t>
-  </si>
-  <si>
-    <t>External Domaincdn-route</t>
-  </si>
-  <si>
-    <t>External Domaincustom-domain</t>
-  </si>
-  <si>
-    <t>External Domaindomain</t>
-  </si>
-  <si>
-    <t>External Domaindomain-with-cdn</t>
-  </si>
-  <si>
-    <t>UAA Service Accountoauth-client</t>
-  </si>
-  <si>
-    <t>UAA Service Accountspace-auditor</t>
-  </si>
-  <si>
-    <t>UAA Service Accountspace-deployer</t>
-  </si>
-  <si>
-    <t>Autoscalerautoscaler-free-plan</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Credits Remaining
@@ -767,14 +596,30 @@
     <t>No Cost</t>
   </si>
   <si>
-    <t>Platform Total</t>
-  </si>
-  <si>
     <t xml:space="preserve"> YearlyTotal Cost</t>
   </si>
   <si>
+    <t>ItemsPerCredPerMo</t>
+  </si>
+  <si>
+    <t>Units/Credit</t>
+  </si>
+  <si>
+    <t>GB per credit</t>
+  </si>
+  <si>
+    <t>Credits/Instance</t>
+  </si>
+  <si>
+    <t>Expected RDS Storage</t>
+  </si>
+  <si>
+    <t>Yearly
+Platform Total</t>
+  </si>
+  <si>
     <t>Instructions:
-- The initial numbers are for a simple production system with 2 dev databases, 1 production database, email services, and S3 storage
+- The initial numbers are for a basic production system with 2 dev databases, 1 production database, email service, and S3 storage
 - Update numbers in yellow, with red borders, to generate your own estimate.
 - For services that AWS bills hourly, we bill based on the total instances operating at the end of the month. 
 - To create an estimate, average your usage over the month.</t>
@@ -791,7 +636,7 @@
     <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -842,13 +687,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -915,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1389,21 +1227,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1423,15 +1246,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1473,11 +1287,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFE599"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,12 +1406,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1516,10 +1431,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1566,9 +1477,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1582,9 +1490,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,9 +1517,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1656,43 +1558,40 @@
     <xf numFmtId="3" fontId="4" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1700,34 +1599,31 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,15 +1632,120 @@
     <xf numFmtId="168" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1822,50 +1823,28 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFFF0000"/>
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
         </left>
-        <right style="medium">
-          <color rgb="FFFF0000"/>
+        <right style="thin">
+          <color rgb="FF284E3F"/>
         </right>
-        <top style="medium">
-          <color rgb="FFFF0000"/>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
         </top>
-        <bottom style="medium">
-          <color rgb="FFFF0000"/>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
-    </dxf>
-    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
-        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="none"/>
       </font>
       <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
       <fill>
@@ -1893,7 +1872,247 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF284E3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF284E3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1939,7 +2158,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1954,26 +2173,371 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF284E3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9EAD3"/>
-          <bgColor rgb="FFD9EAD3"/>
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FFD9EAD3"/>
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
         </left>
         <right style="thin">
           <color rgb="FF284E3F"/>
         </right>
         <top style="thin">
-          <color rgb="FFD9EAD3"/>
+          <color rgb="FFFFFFFF"/>
         </top>
         <bottom style="thin">
           <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -2424,54 +2988,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
+      <tableStyleElement type="firstRowStripe" dxfId="68"/>
+      <tableStyleElement type="secondRowStripe" dxfId="67"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="firstRowStripe" dxfId="42"/>
-      <tableStyleElement type="secondRowStripe" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="firstRowStripe" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="firstRowStripe" dxfId="39"/>
-      <tableStyleElement type="secondRowStripe" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="63"/>
+      <tableStyleElement type="firstRowStripe" dxfId="62"/>
+      <tableStyleElement type="secondRowStripe" dxfId="61"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="37"/>
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="firstRowStripe" dxfId="59"/>
+      <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="firstRowStripe" dxfId="33"/>
-      <tableStyleElement type="secondRowStripe" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
+      <tableStyleElement type="firstRowStripe" dxfId="56"/>
+      <tableStyleElement type="secondRowStripe" dxfId="55"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="54"/>
+      <tableStyleElement type="firstRowStripe" dxfId="53"/>
+      <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="secondRowStripe" dxfId="49"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="48"/>
+      <tableStyleElement type="firstRowStripe" dxfId="47"/>
+      <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
+      <tableStyleElement type="firstRowStripe" dxfId="44"/>
+      <tableStyleElement type="secondRowStripe" dxfId="43"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="firstRowStripe" dxfId="18"/>
-      <tableStyleElement type="secondRowStripe" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="firstRowStripe" dxfId="41"/>
+      <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2486,25 +3050,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:G5">
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="38">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="14">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="37">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Platform Total" dataDxfId="13">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="36">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="35">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="34">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{741BE965-E97C-8C42-92BA-B25D4E1284B5}" name="Column1" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2530,7 +3093,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2540,14 +3103,14 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Column 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Dimension"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits">
-      <calculatedColumnFormula>ROUNDUP(J10/'AWS Service Prices'!N3,0)*VLOOKUP(_xlfn.CONCAT(E10,I10), MeteredServices, 5, FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="11">
+      <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2559,12 +3122,14 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column 1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits">
-      <calculatedColumnFormula>ROUNDUP(R10/'AWS Service Prices'!N$5,0)*VLOOKUP(_xlfn.CONCAT(M10,Q10),MeteredServices, 5, FALSE)</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="29">
+      <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="27"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="30">
+      <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2575,7 +3140,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2583,16 +3148,18 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="19">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Column 1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits">
-      <calculatedColumnFormula>ROUNDUP(R15/'AWS Service Prices'!N$5,0)*VLOOKUP(_xlfn.CONCAT(M15,Q15),MeteredServices, 5, FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="22">
+      <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="20">
+      <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -2614,11 +3181,15 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Column 1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="31">
+      <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="18">
+      <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 8" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2839,7 +3410,7 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2849,15 +3420,19 @@
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="30.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
     <col min="13" max="13" width="18.83203125" customWidth="1"/>
     <col min="14" max="14" width="36.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" customWidth="1"/>
     <col min="22" max="22" width="15.1640625" customWidth="1"/>
     <col min="23" max="23" width="21.33203125" customWidth="1"/>
     <col min="24" max="24" width="23" customWidth="1"/>
@@ -2865,14 +3440,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="96" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
+      <c r="A1" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2887,59 +3462,55 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="88" t="s">
+      <c r="C4" s="80" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" t="s">
-        <v>229</v>
+      <c r="F4" s="83" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="90">
+      <c r="A5" s="81">
         <f>C10+SUM(B19:B23)</f>
-        <v>45</v>
-      </c>
-      <c r="B5" s="91" t="str" cm="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="82" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</f>
         <v>Femto</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="76">
         <f>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="86">
+        <v>2</v>
+      </c>
+      <c r="D5" s="77">
         <f>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</f>
         <v>30000</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="77">
         <f>C15</f>
         <v>2500</v>
       </c>
-      <c r="F5" s="93">
+      <c r="F5" s="84">
         <f>D5+E5</f>
         <v>32500</v>
       </c>
-      <c r="G5" s="84"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4"/>
@@ -2952,1519 +3523,1528 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="B10" s="85">
         <v>12</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="94">
-        <v>12</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>B10*'Cloud.gov Tiers'!B3</f>
         <v>36</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="H10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="40">
+        <v>100</v>
+      </c>
+      <c r="J10" s="85">
+        <v>101</v>
+      </c>
+      <c r="K10" s="42">
+        <f>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</f>
+        <v>2</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="O10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="94">
-        <v>30</v>
-      </c>
-      <c r="K10" s="17">
-        <f>ROUNDUP(J10/'AWS Service Prices'!N3,0)*VLOOKUP(_xlfn.CONCAT(E10,I10), MeteredServices, 5, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="94">
-        <v>80</v>
-      </c>
-      <c r="S10" s="17">
-        <f>ROUNDUP(R10/'AWS Service Prices'!N$5,0)*VLOOKUP(_xlfn.CONCAT(M10,Q10),MeteredServices, 5, FALSE)</f>
-        <v>1</v>
+      <c r="Q10" s="40">
+        <f>'AWS Service Prices'!K5*'AWS Service Prices'!M5</f>
+        <v>400</v>
+      </c>
+      <c r="R10" s="85">
+        <v>401</v>
+      </c>
+      <c r="S10" s="42">
+        <f>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
-      <c r="C11" s="18"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>24</v>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="I13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="20" t="s">
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="19" t="s">
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f t="array" ref="E14:I43">AWSRdsServicePrices</f>
+        <v>AWS RDS</v>
+      </c>
+      <c r="F14" s="19" t="str">
+        <v>micro-psql</v>
+      </c>
+      <c r="G14" s="19" t="str">
+        <v>db.t3.micro</v>
+      </c>
+      <c r="H14" s="19">
         <v>1</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="22" t="str">
-        <f t="array" ref="E14:I43">AwsRdsServicePrices</f>
-        <v>AWS RDS</v>
-      </c>
-      <c r="F14" s="23" t="str">
-        <v>micro-psql</v>
-      </c>
-      <c r="G14" s="23" t="str">
-        <v>AWS RDSmicro-psql</v>
-      </c>
-      <c r="H14" s="23" t="str">
-        <v>db.t3.micro</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="I14" s="19">
         <v>1</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="20">
         <v>2</v>
       </c>
-      <c r="K14" s="25">
-        <f>J14*VLOOKUP(G14, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="K14" s="92">
+        <f>I14*J14</f>
         <v>2</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="26">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="22">
         <v>250</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="86">
         <v>10</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <f>A15*B15</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F15" s="29" t="str">
+      <c r="F15" s="25" t="str">
         <v>micro-psql-redundant</v>
       </c>
-      <c r="G15" s="29" t="str">
-        <v>AWS RDSmicro-psql-redundant</v>
-      </c>
-      <c r="H15" s="29" t="str">
+      <c r="G15" s="25" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="I15" s="29">
+      <c r="H15" s="25">
         <v>1</v>
       </c>
-      <c r="J15" s="30">
-        <v>0</v>
-      </c>
-      <c r="K15" s="31">
-        <f>J15*VLOOKUP(G15, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="I15" s="25">
+        <v>2</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0</v>
+      </c>
+      <c r="K15" s="92">
+        <f t="shared" ref="K15:K43" si="0">I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="40">
+        <f>'AWS Service Prices'!K4*'AWS Service Prices'!M4</f>
+        <v>100</v>
+      </c>
+      <c r="R15" s="85">
+        <v>0</v>
+      </c>
+      <c r="S15" s="42">
+        <f>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="18" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F16" s="19" t="str">
+        <v>small-psql</v>
+      </c>
+      <c r="G16" s="19" t="str">
+        <v>db.t3.small</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0</v>
+      </c>
+      <c r="K16" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="R15" s="94">
-        <v>0</v>
-      </c>
-      <c r="S15" s="17">
-        <f>ROUNDUP(R15/'AWS Service Prices'!N$5,0)*VLOOKUP(_xlfn.CONCAT(M15,Q15),MeteredServices, 5, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="22" t="str">
+      <c r="E17" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F16" s="23" t="str">
-        <v>small-psql</v>
-      </c>
-      <c r="G16" s="23" t="str">
-        <v>AWS RDSsmall-psql</v>
-      </c>
-      <c r="H16" s="23" t="str">
+      <c r="F17" s="25" t="str">
+        <v>small-psql-redundant</v>
+      </c>
+      <c r="G17" s="25" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="I16" s="23">
+      <c r="H17" s="25">
         <v>1</v>
       </c>
-      <c r="J16" s="30">
-        <v>0</v>
-      </c>
-      <c r="K16" s="25">
-        <f>J16*VLOOKUP(G16, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="28" t="str">
+      <c r="I17" s="25">
+        <v>4</v>
+      </c>
+      <c r="J17" s="26">
+        <v>1</v>
+      </c>
+      <c r="K17" s="92">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="87"/>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F17" s="29" t="str">
-        <v>small-psql-redundant</v>
-      </c>
-      <c r="G17" s="29" t="str">
-        <v>AWS RDSsmall-psql-redundant</v>
-      </c>
-      <c r="H17" s="29" t="str">
-        <v>db.t3.small</v>
-      </c>
-      <c r="I17" s="29">
+      <c r="F18" s="19" t="str">
+        <v>medium-psql</v>
+      </c>
+      <c r="G18" s="19" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H18" s="19">
         <v>1</v>
       </c>
-      <c r="J17" s="30">
+      <c r="I18" s="19">
+        <v>4</v>
+      </c>
+      <c r="J18" s="26">
+        <v>0</v>
+      </c>
+      <c r="K18" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="R18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="31">
-        <f>J17*VLOOKUP(G17, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y17" s="33"/>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="31">
+        <f t="array" ref="B19">Worksheet!$S$10</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F19" s="25" t="str">
+        <v>medium-psql-redundant</v>
+      </c>
+      <c r="G19" s="25" t="str">
+        <v>db.t3.medium</v>
+      </c>
+      <c r="H19" s="25">
         <v>1</v>
       </c>
-      <c r="E18" s="22" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F18" s="23" t="str">
-        <v>medium-psql</v>
-      </c>
-      <c r="G18" s="23" t="str">
-        <v>AWS RDSmedium-psql</v>
-      </c>
-      <c r="H18" s="23" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="I18" s="23">
-        <v>1</v>
-      </c>
-      <c r="J18" s="30">
-        <v>0</v>
-      </c>
-      <c r="K18" s="25">
-        <f>J18*VLOOKUP(G18, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="33"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="36">
-        <f t="array" ref="B19">Worksheet!$S$10</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="28" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F19" s="29" t="str">
-        <v>medium-psql-redundant</v>
-      </c>
-      <c r="G19" s="29" t="str">
-        <v>AWS RDSmedium-psql-redundant</v>
-      </c>
-      <c r="H19" s="29" t="str">
-        <v>db.t3.medium</v>
-      </c>
-      <c r="I19" s="29">
-        <v>1</v>
-      </c>
-      <c r="J19" s="30">
-        <v>0</v>
-      </c>
-      <c r="K19" s="31">
-        <f>J19*VLOOKUP(G19, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="22" t="str">
+      <c r="I19" s="25">
+        <v>8</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="47" t="str" cm="1">
         <f t="array" ref="M19:Q29">AwsOpensearchPrices</f>
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N19" s="23" t="str">
+      <c r="N19" s="48" t="str">
         <v>es-dev</v>
       </c>
-      <c r="O19" s="23" t="str">
-        <v>AWS OpenSearches-dev</v>
-      </c>
-      <c r="P19" s="23" t="str">
+      <c r="O19" s="48" t="str">
         <v>t3.small.search</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="P19" s="48">
         <v>1</v>
       </c>
-      <c r="R19" s="37">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25">
-        <f>R19*VLOOKUP(O19, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="33"/>
+      <c r="Q19" s="48">
+        <v>2</v>
+      </c>
+      <c r="R19" s="32">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
+        <f>R19*Q19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="39">
+      <c r="A20" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="34">
         <f t="array" ref="B20">SUM(K14:K43) + Worksheet!$K$10</f>
+        <v>8</v>
+      </c>
+      <c r="E20" s="18" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F20" s="19" t="str">
+        <v>medium-gp-psql</v>
+      </c>
+      <c r="G20" s="19" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19">
+        <v>10</v>
+      </c>
+      <c r="J20" s="26">
+        <v>0</v>
+      </c>
+      <c r="K20" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="24" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N20" s="25" t="str">
+        <v>es-medium</v>
+      </c>
+      <c r="O20" s="25" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P20" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>34</v>
+      </c>
+      <c r="R20" s="38">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <f t="shared" ref="S20:S29" si="1">R20*Q20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="31">
+        <f>Worksheet!$S$15+SUM(S19:S29)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F21" s="25" t="str">
+        <v>medium-gp-psql-redundant</v>
+      </c>
+      <c r="G21" s="25" t="str">
+        <v>db.m5.large</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1</v>
+      </c>
+      <c r="I21" s="25">
+        <v>20</v>
+      </c>
+      <c r="J21" s="26">
+        <v>0</v>
+      </c>
+      <c r="K21" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N21" s="48" t="str">
+        <v>es-medium-ha</v>
+      </c>
+      <c r="O21" s="48" t="str">
+        <v>c5.large.search</v>
+      </c>
+      <c r="P21" s="48">
         <v>7</v>
       </c>
-      <c r="E20" s="22" t="str">
+      <c r="Q21" s="48">
+        <v>48</v>
+      </c>
+      <c r="R21" s="38">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="34">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F20" s="23" t="str">
-        <v>medium-gp-psql</v>
-      </c>
-      <c r="G20" s="23" t="str">
-        <v>AWS RDSmedium-gp-psql</v>
-      </c>
-      <c r="H20" s="23" t="str">
+      <c r="F22" s="19" t="str">
+        <v>large-gp-psql</v>
+      </c>
+      <c r="G22" s="19" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I20" s="23">
+      <c r="H22" s="19">
         <v>1</v>
       </c>
-      <c r="J20" s="30">
-        <v>0</v>
-      </c>
-      <c r="K20" s="25">
-        <f>J20*VLOOKUP(G20, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="28" t="str">
+      <c r="I22" s="19">
+        <v>10</v>
+      </c>
+      <c r="J22" s="35">
+        <v>0</v>
+      </c>
+      <c r="K22" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="24" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N20" s="29" t="str">
-        <v>es-medium</v>
-      </c>
-      <c r="O20" s="29" t="str">
-        <v>AWS OpenSearches-medium</v>
-      </c>
-      <c r="P20" s="29" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="Q20" s="29">
+      <c r="N22" s="25" t="str">
+        <v>es-large</v>
+      </c>
+      <c r="O22" s="25" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P22" s="25">
         <v>5</v>
       </c>
-      <c r="R20" s="40">
-        <v>0</v>
-      </c>
-      <c r="S20" s="31">
-        <f>R20*VLOOKUP(O20, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="33"/>
-    </row>
-    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="36">
-        <f>Worksheet!$S$15+SUM(S19:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="28" t="str">
+      <c r="Q22" s="25">
+        <v>69</v>
+      </c>
+      <c r="R22" s="38">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="37">
+        <f>SUM(Table_8[Credits])</f>
+        <v>2</v>
+      </c>
+      <c r="E23" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F21" s="29" t="str">
-        <v>medium-gp-psql-redundant</v>
-      </c>
-      <c r="G21" s="29" t="str">
-        <v>AWS RDSmedium-gp-psql-redundant</v>
-      </c>
-      <c r="H21" s="29" t="str">
+      <c r="F23" s="25" t="str">
+        <v>large-gp-psql-redundant</v>
+      </c>
+      <c r="G23" s="25" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I21" s="29">
+      <c r="H23" s="25">
         <v>1</v>
       </c>
-      <c r="J21" s="30">
-        <v>0</v>
-      </c>
-      <c r="K21" s="31">
-        <f>J21*VLOOKUP(G21, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="22" t="str">
+      <c r="I23" s="25">
+        <v>20</v>
+      </c>
+      <c r="J23" s="26">
+        <v>0</v>
+      </c>
+      <c r="K23" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="47" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N21" s="23" t="str">
-        <v>es-medium-ha</v>
-      </c>
-      <c r="O21" s="23" t="str">
-        <v>AWS OpenSearches-medium-ha</v>
-      </c>
-      <c r="P21" s="23" t="str">
-        <v>c5.large.search</v>
-      </c>
-      <c r="Q21" s="23">
+      <c r="N23" s="48" t="str">
+        <v>es-large-ha</v>
+      </c>
+      <c r="O23" s="48" t="str">
+        <v>c5.xlarge.search</v>
+      </c>
+      <c r="P23" s="48">
         <v>7</v>
       </c>
-      <c r="R21" s="40">
-        <v>0</v>
-      </c>
-      <c r="S21" s="25">
-        <f>R21*VLOOKUP(O21, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="33"/>
-    </row>
-    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="39">
-        <f>SUM(S33:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="22" t="str">
+      <c r="Q23" s="48">
+        <v>96</v>
+      </c>
+      <c r="R23" s="38">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F22" s="23" t="str">
-        <v>large-gp-psql</v>
-      </c>
-      <c r="G22" s="23" t="str">
-        <v>AWS RDSlarge-gp-psql</v>
-      </c>
-      <c r="H22" s="23" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="I22" s="23">
+      <c r="F24" s="19" t="str">
+        <v>xlarge-gp-psql</v>
+      </c>
+      <c r="G24" s="19" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H24" s="19">
         <v>1</v>
       </c>
-      <c r="J22" s="41">
-        <v>0</v>
-      </c>
-      <c r="K22" s="25">
-        <f>J22*VLOOKUP(G22, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="28" t="str">
+      <c r="I24" s="19">
+        <v>20</v>
+      </c>
+      <c r="J24" s="26">
+        <v>0</v>
+      </c>
+      <c r="K24" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="24" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N22" s="29" t="str">
-        <v>es-large</v>
-      </c>
-      <c r="O22" s="29" t="str">
-        <v>AWS OpenSearches-large</v>
-      </c>
-      <c r="P22" s="29" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="Q22" s="29">
+      <c r="N24" s="25" t="str">
+        <v>es-xlarge</v>
+      </c>
+      <c r="O24" s="25" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P24" s="25">
         <v>5</v>
       </c>
-      <c r="R22" s="40">
-        <v>0</v>
-      </c>
-      <c r="S22" s="31">
-        <f>R22*VLOOKUP(O22, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="33"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="43">
-        <f>SUM(Worksheet!$S$41:$S$42)</f>
+      <c r="Q24" s="25">
+        <v>137</v>
+      </c>
+      <c r="R24" s="38">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E25" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F25" s="25" t="str">
+        <v>xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G25" s="25" t="str">
+        <v>db.m5.xlarge</v>
+      </c>
+      <c r="H25" s="25">
         <v>1</v>
       </c>
-      <c r="E23" s="28" t="str">
+      <c r="I25" s="25">
+        <v>39</v>
+      </c>
+      <c r="J25" s="26">
+        <v>0</v>
+      </c>
+      <c r="K25" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N25" s="48" t="str">
+        <v>es-xlarge-ha</v>
+      </c>
+      <c r="O25" s="48" t="str">
+        <v>c5.2xlarge.search</v>
+      </c>
+      <c r="P25" s="48">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>192</v>
+      </c>
+      <c r="R25" s="38">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="E26" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F23" s="29" t="str">
-        <v>large-gp-psql-redundant</v>
-      </c>
-      <c r="G23" s="29" t="str">
-        <v>AWS RDSlarge-gp-psql-redundant</v>
-      </c>
-      <c r="H23" s="29" t="str">
-        <v>db.m5.large</v>
-      </c>
-      <c r="I23" s="29">
+      <c r="F26" s="19" t="str">
+        <v>2xlarge-gp-psql</v>
+      </c>
+      <c r="G26" s="19" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H26" s="19">
         <v>1</v>
       </c>
-      <c r="J23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="31">
-        <f>J23*VLOOKUP(G23, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="22" t="str">
+      <c r="I26" s="19">
+        <v>39</v>
+      </c>
+      <c r="J26" s="26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="24" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N23" s="23" t="str">
-        <v>es-large-ha</v>
-      </c>
-      <c r="O23" s="23" t="str">
-        <v>AWS OpenSearches-large-ha</v>
-      </c>
-      <c r="P23" s="23" t="str">
-        <v>c5.xlarge.search</v>
-      </c>
-      <c r="Q23" s="23">
+      <c r="N26" s="25" t="str">
+        <v>es-2xlarge-gp</v>
+      </c>
+      <c r="O26" s="25" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P26" s="25">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>163</v>
+      </c>
+      <c r="R26" s="38">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="24" t="str">
+        <v>AWS RDS</v>
+      </c>
+      <c r="F27" s="25" t="str">
+        <v>2xlarge-gp-psql-redundant</v>
+      </c>
+      <c r="G27" s="25" t="str">
+        <v>db.m5.2xlarge</v>
+      </c>
+      <c r="H27" s="25">
+        <v>1</v>
+      </c>
+      <c r="I27" s="25">
+        <v>78</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="47" t="str">
+        <v>AWS OpenSearch</v>
+      </c>
+      <c r="N27" s="48" t="str">
+        <v>es-2xlarge-gp-ha</v>
+      </c>
+      <c r="O27" s="48" t="str">
+        <v>m5.2xlarge.search</v>
+      </c>
+      <c r="P27" s="48">
         <v>7</v>
       </c>
-      <c r="R23" s="40">
-        <v>0</v>
-      </c>
-      <c r="S23" s="25">
-        <f>R23*VLOOKUP(O23, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="33"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E24" s="22" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F24" s="23" t="str">
-        <v>xlarge-gp-psql</v>
-      </c>
-      <c r="G24" s="23" t="str">
-        <v>AWS RDSxlarge-gp-psql</v>
-      </c>
-      <c r="H24" s="23" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="I24" s="23">
-        <v>1</v>
-      </c>
-      <c r="J24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="25">
-        <f>J24*VLOOKUP(G24, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="28" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N24" s="29" t="str">
-        <v>es-xlarge</v>
-      </c>
-      <c r="O24" s="29" t="str">
-        <v>AWS OpenSearches-xlarge</v>
-      </c>
-      <c r="P24" s="29" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>5</v>
-      </c>
-      <c r="R24" s="40">
-        <v>0</v>
-      </c>
-      <c r="S24" s="31">
-        <f>R24*VLOOKUP(O24, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="33"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E25" s="28" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F25" s="29" t="str">
-        <v>xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G25" s="29" t="str">
-        <v>AWS RDSxlarge-gp-psql-redundant</v>
-      </c>
-      <c r="H25" s="29" t="str">
-        <v>db.m5.xlarge</v>
-      </c>
-      <c r="I25" s="29">
-        <v>1</v>
-      </c>
-      <c r="J25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="31">
-        <f>J25*VLOOKUP(G25, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="22" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N25" s="23" t="str">
-        <v>es-xlarge-ha</v>
-      </c>
-      <c r="O25" s="23" t="str">
-        <v>AWS OpenSearches-xlarge-ha</v>
-      </c>
-      <c r="P25" s="23" t="str">
-        <v>c5.2xlarge.search</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>7</v>
-      </c>
-      <c r="R25" s="40">
-        <v>0</v>
-      </c>
-      <c r="S25" s="25">
-        <f>R25*VLOOKUP(O25, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="33"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="22" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F26" s="23" t="str">
-        <v>2xlarge-gp-psql</v>
-      </c>
-      <c r="G26" s="23" t="str">
-        <v>AWS RDS2xlarge-gp-psql</v>
-      </c>
-      <c r="H26" s="23" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="I26" s="23">
-        <v>1</v>
-      </c>
-      <c r="J26" s="30">
-        <v>0</v>
-      </c>
-      <c r="K26" s="25">
-        <f>J26*VLOOKUP(G26, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="28" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N26" s="29" t="str">
-        <v>es-2xlarge-gp</v>
-      </c>
-      <c r="O26" s="29" t="str">
-        <v>AWS OpenSearches-2xlarge-gp</v>
-      </c>
-      <c r="P26" s="29" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>5</v>
-      </c>
-      <c r="R26" s="44">
-        <v>0</v>
-      </c>
-      <c r="S26" s="31">
-        <f>R26*VLOOKUP(O26, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="33"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="28" t="str">
-        <v>AWS RDS</v>
-      </c>
-      <c r="F27" s="29" t="str">
-        <v>2xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="G27" s="29" t="str">
-        <v>AWS RDS2xlarge-gp-psql-redundant</v>
-      </c>
-      <c r="H27" s="29" t="str">
-        <v>db.m5.2xlarge</v>
-      </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-      <c r="J27" s="30">
-        <v>0</v>
-      </c>
-      <c r="K27" s="31">
-        <f>J27*VLOOKUP(G27, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="22" t="str">
-        <v>AWS OpenSearch</v>
-      </c>
-      <c r="N27" s="23" t="str">
-        <v>es-2xlarge-gp-ha</v>
-      </c>
-      <c r="O27" s="23" t="str">
-        <v>AWS OpenSearches-2xlarge-gp-ha</v>
-      </c>
-      <c r="P27" s="23" t="str">
-        <v>m5.2xlarge.search</v>
-      </c>
-      <c r="Q27" s="23">
-        <v>7</v>
-      </c>
-      <c r="R27" s="40">
-        <v>0</v>
-      </c>
-      <c r="S27" s="25">
-        <f>R27*VLOOKUP(O27, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="33"/>
+      <c r="Q27" s="48">
+        <v>228</v>
+      </c>
+      <c r="R27" s="38">
+        <v>0</v>
+      </c>
+      <c r="S27" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="22" t="str">
+      <c r="A28" s="18" t="str">
         <f t="array" ref="A28:B35">CloudGovNoCostServices</f>
         <v>External Domain</v>
       </c>
-      <c r="B28" s="25" t="str">
+      <c r="B28" s="21" t="str">
         <v>cdn-route</v>
       </c>
-      <c r="E28" s="22" t="str">
+      <c r="E28" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F28" s="23" t="str">
+      <c r="F28" s="19" t="str">
         <v>xlarge-gp-psql-m6</v>
       </c>
-      <c r="G28" s="23" t="str">
-        <v>AWS RDSxlarge-gp-psql-m6</v>
-      </c>
-      <c r="H28" s="23" t="str">
+      <c r="G28" s="19" t="str">
         <v>db.m6g.xlarge</v>
       </c>
-      <c r="I28" s="23">
+      <c r="H28" s="19">
         <v>1</v>
       </c>
-      <c r="J28" s="30">
-        <v>0</v>
-      </c>
-      <c r="K28" s="25">
-        <f>J28*VLOOKUP(G28, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="28" t="str">
+      <c r="I28" s="19">
+        <v>17</v>
+      </c>
+      <c r="J28" s="26">
+        <v>0</v>
+      </c>
+      <c r="K28" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="24" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N28" s="29" t="str">
+      <c r="N28" s="25" t="str">
         <v>es-4xlarge-gp</v>
       </c>
-      <c r="O28" s="29" t="str">
-        <v>AWS OpenSearches-4xlarge-gp</v>
-      </c>
-      <c r="P28" s="29" t="str">
+      <c r="O28" s="25" t="str">
         <v>m5.4xlarge.search</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="P28" s="25">
         <v>5</v>
       </c>
-      <c r="R28" s="40">
-        <v>0</v>
-      </c>
-      <c r="S28" s="31">
-        <f>R28*VLOOKUP(O28, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="33"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="28" t="str">
+      <c r="Q28" s="25">
+        <v>326</v>
+      </c>
+      <c r="R28" s="38">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B29" s="31" t="str">
+      <c r="B29" s="27" t="str">
         <v>custom-domain</v>
       </c>
-      <c r="E29" s="28" t="str">
+      <c r="E29" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F29" s="29" t="str">
+      <c r="F29" s="25" t="str">
         <v>xlarge-gp-psql-m6-redundant</v>
       </c>
-      <c r="G29" s="29" t="str">
-        <v>AWS RDSxlarge-gp-psql-m6-redundant</v>
-      </c>
-      <c r="H29" s="29" t="str">
+      <c r="G29" s="25" t="str">
         <v>db.m6g.xlarge</v>
       </c>
-      <c r="I29" s="29">
+      <c r="H29" s="25">
         <v>1</v>
       </c>
-      <c r="J29" s="30">
-        <v>0</v>
-      </c>
-      <c r="K29" s="31">
-        <f>J29*VLOOKUP(G29, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="45" t="str">
+      <c r="I29" s="25">
+        <v>34</v>
+      </c>
+      <c r="J29" s="26">
+        <v>0</v>
+      </c>
+      <c r="K29" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="39" t="str">
         <v>AWS OpenSearch</v>
       </c>
-      <c r="N29" s="46" t="str">
+      <c r="N29" s="40" t="str">
         <v>es-4xlarge-gp-ha</v>
       </c>
-      <c r="O29" s="46" t="str">
-        <v>AWS OpenSearches-4xlarge-gp-ha</v>
-      </c>
-      <c r="P29" s="46" t="str">
+      <c r="O29" s="40" t="str">
         <v>m5.4xlarge.search</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="P29" s="40">
         <v>7</v>
       </c>
-      <c r="R29" s="47">
-        <v>0</v>
-      </c>
-      <c r="S29" s="48">
-        <f>R29*VLOOKUP(O29, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="33"/>
+      <c r="Q29" s="40">
+        <v>456</v>
+      </c>
+      <c r="R29" s="41">
+        <v>0</v>
+      </c>
+      <c r="S29" s="93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="94"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="str">
+      <c r="A30" s="18" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B30" s="21" t="str">
         <v>domain</v>
       </c>
-      <c r="E30" s="22" t="str">
+      <c r="E30" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F30" s="23" t="str">
+      <c r="F30" s="19" t="str">
         <v>micro-mysql</v>
       </c>
-      <c r="G30" s="23" t="str">
-        <v>AWS RDSmicro-mysql</v>
-      </c>
-      <c r="H30" s="23" t="str">
+      <c r="G30" s="19" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="I30" s="23">
+      <c r="H30" s="19">
         <v>1</v>
       </c>
-      <c r="J30" s="49">
-        <v>0</v>
-      </c>
-      <c r="K30" s="25">
-        <f>J30*VLOOKUP(G30, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="33"/>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="43">
+        <v>0</v>
+      </c>
+      <c r="K30" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="87"/>
+      <c r="Y30" s="29"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="28" t="str">
+      <c r="A31" s="24" t="str">
         <v>External Domain</v>
       </c>
-      <c r="B31" s="31" t="str">
+      <c r="B31" s="27" t="str">
         <v>domain-with-cdn</v>
       </c>
-      <c r="E31" s="28" t="str">
+      <c r="E31" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F31" s="29" t="str">
+      <c r="F31" s="25" t="str">
         <v>micro-mysql-redundant</v>
       </c>
-      <c r="G31" s="29" t="str">
-        <v>AWS RDSmicro-mysql-redundant</v>
-      </c>
-      <c r="H31" s="29" t="str">
+      <c r="G31" s="25" t="str">
         <v>db.t3.micro</v>
       </c>
-      <c r="I31" s="29">
+      <c r="H31" s="25">
         <v>1</v>
       </c>
-      <c r="J31" s="30">
-        <v>0</v>
-      </c>
-      <c r="K31" s="31">
-        <f>J31*VLOOKUP(G31, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="I31" s="25">
+        <v>2</v>
+      </c>
+      <c r="J31" s="26">
+        <v>0</v>
+      </c>
+      <c r="K31" s="92">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y31" s="33"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="22" t="str">
+        <v>90</v>
+      </c>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B32" s="25" t="str">
+      <c r="B32" s="21" t="str">
         <v>oauth-client</v>
       </c>
-      <c r="E32" s="22" t="str">
+      <c r="E32" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F32" s="23" t="str">
+      <c r="F32" s="19" t="str">
         <v>small-mysql</v>
       </c>
-      <c r="G32" s="23" t="str">
-        <v>AWS RDSsmall-mysql</v>
-      </c>
-      <c r="H32" s="23" t="str">
+      <c r="G32" s="19" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="I32" s="23">
+      <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="J32" s="30">
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
-        <f>J32*VLOOKUP(G32, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="34" t="s">
+      <c r="I32" s="19">
+        <v>2</v>
+      </c>
+      <c r="J32" s="26">
+        <v>0</v>
+      </c>
+      <c r="K32" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="P32" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q32" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="R32" s="34" t="s">
+      <c r="N32" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="R32" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="S32" s="34" t="s">
+      <c r="S32" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="28" t="str">
+      <c r="A33" s="24" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B33" s="31" t="str">
+      <c r="B33" s="27" t="str">
         <v>space-auditor</v>
       </c>
-      <c r="E33" s="28" t="str">
+      <c r="E33" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F33" s="29" t="str">
+      <c r="F33" s="25" t="str">
         <v>small-mysql-redundant</v>
       </c>
-      <c r="G33" s="29" t="str">
-        <v>AWS RDSsmall-mysql-redundant</v>
-      </c>
-      <c r="H33" s="29" t="str">
+      <c r="G33" s="25" t="str">
         <v>db.t3.small</v>
       </c>
-      <c r="I33" s="29">
+      <c r="H33" s="25">
         <v>1</v>
       </c>
-      <c r="J33" s="30">
-        <v>0</v>
-      </c>
-      <c r="K33" s="31">
-        <f>J33*VLOOKUP(G33, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="22" t="str">
+      <c r="I33" s="25">
+        <v>4</v>
+      </c>
+      <c r="J33" s="26">
+        <v>0</v>
+      </c>
+      <c r="K33" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="47" t="str" cm="1">
         <f t="array" ref="M33:Q37">AwsElasticCachePrices</f>
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N33" s="23" t="str">
+      <c r="N33" s="48" t="str">
         <v>redis-dev</v>
       </c>
-      <c r="O33" s="23" t="str">
-        <v>AWS ElastiCacheredis-dev</v>
-      </c>
-      <c r="P33" s="23" t="str">
+      <c r="O33" s="48" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="Q33" s="23">
+      <c r="P33" s="48">
         <v>1</v>
       </c>
+      <c r="Q33" s="90">
+        <v>1</v>
+      </c>
       <c r="R33" s="50">
         <v>0</v>
       </c>
-      <c r="S33" s="25">
-        <f>R33*VLOOKUP(O33, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="S33" s="21">
+        <f>R33*Q33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="str">
+      <c r="A34" s="18" t="str">
         <v>UAA Service Account</v>
       </c>
-      <c r="B34" s="25" t="str">
+      <c r="B34" s="21" t="str">
         <v>space-deployer</v>
       </c>
-      <c r="E34" s="22" t="str">
+      <c r="E34" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F34" s="23" t="str">
+      <c r="F34" s="19" t="str">
         <v>medium-mysql</v>
       </c>
-      <c r="G34" s="23" t="str">
-        <v>AWS RDSmedium-mysql</v>
-      </c>
-      <c r="H34" s="23" t="str">
+      <c r="G34" s="19" t="str">
         <v>db.t3.medium</v>
       </c>
-      <c r="I34" s="23">
+      <c r="H34" s="19">
         <v>1</v>
       </c>
-      <c r="J34" s="30">
-        <v>0</v>
-      </c>
-      <c r="K34" s="25">
-        <f>J34*VLOOKUP(G34, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="28" t="str">
+      <c r="I34" s="19">
+        <v>4</v>
+      </c>
+      <c r="J34" s="26">
+        <v>0</v>
+      </c>
+      <c r="K34" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="24" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N34" s="29" t="str">
+      <c r="N34" s="25" t="str">
         <v>redis-3node</v>
       </c>
-      <c r="O34" s="29" t="str">
-        <v>AWS ElastiCacheredis-3node</v>
-      </c>
-      <c r="P34" s="29" t="str">
+      <c r="O34" s="25" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="P34" s="25">
         <v>3</v>
       </c>
-      <c r="R34" s="40">
-        <v>0</v>
-      </c>
-      <c r="S34" s="31">
-        <f>R34*VLOOKUP(O34, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="Q34" s="90">
+        <v>2</v>
+      </c>
+      <c r="R34" s="38">
+        <v>0</v>
+      </c>
+      <c r="S34" s="21">
+        <f t="shared" ref="S34:S37" si="2">R34*Q34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="28" t="str">
+      <c r="A35" s="24" t="str">
         <v>Autoscaler</v>
       </c>
-      <c r="B35" s="31" t="str">
+      <c r="B35" s="27" t="str">
         <v>autoscaler-free-plan</v>
       </c>
-      <c r="E35" s="28" t="str">
+      <c r="E35" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F35" s="29" t="str">
+      <c r="F35" s="25" t="str">
         <v>medium-mysql-redundant</v>
       </c>
-      <c r="G35" s="29" t="str">
-        <v>AWS RDSmedium-mysql-redundant</v>
-      </c>
-      <c r="H35" s="29" t="str">
+      <c r="G35" s="25" t="str">
         <v>db.t3.medium</v>
       </c>
-      <c r="I35" s="29">
+      <c r="H35" s="25">
         <v>1</v>
       </c>
-      <c r="J35" s="41">
-        <v>0</v>
-      </c>
-      <c r="K35" s="31">
-        <f>J35*VLOOKUP(G35, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="22" t="str">
+      <c r="I35" s="25">
+        <v>7</v>
+      </c>
+      <c r="J35" s="35">
+        <v>0</v>
+      </c>
+      <c r="K35" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="47" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N35" s="23" t="str">
+      <c r="N35" s="48" t="str">
         <v>redis-5node</v>
       </c>
-      <c r="O35" s="23" t="str">
-        <v>AWS ElastiCacheredis-5node</v>
-      </c>
-      <c r="P35" s="23" t="str">
+      <c r="O35" s="48" t="str">
         <v>cache.t3.micro</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="P35" s="48">
         <v>5</v>
       </c>
-      <c r="R35" s="40">
-        <v>0</v>
-      </c>
-      <c r="S35" s="25">
-        <f>R35*VLOOKUP(O35, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="Q35" s="90">
+        <v>4</v>
+      </c>
+      <c r="R35" s="38">
+        <v>0</v>
+      </c>
+      <c r="S35" s="21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="51"/>
-      <c r="E36" s="22" t="str">
+      <c r="A36" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="E36" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F36" s="23" t="str">
+      <c r="F36" s="19" t="str">
         <v>medium-gp-mysql</v>
       </c>
-      <c r="G36" s="23" t="str">
-        <v>AWS RDSmedium-gp-mysql</v>
-      </c>
-      <c r="H36" s="23" t="str">
+      <c r="G36" s="19" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I36" s="23">
+      <c r="H36" s="19">
         <v>1</v>
       </c>
-      <c r="J36" s="30">
-        <v>0</v>
-      </c>
-      <c r="K36" s="25">
-        <f>J36*VLOOKUP(G36, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="28" t="str">
+      <c r="I36" s="19">
+        <v>9</v>
+      </c>
+      <c r="J36" s="26">
+        <v>0</v>
+      </c>
+      <c r="K36" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="24" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N36" s="29" t="str">
+      <c r="N36" s="25" t="str">
         <v>redis-3node-large</v>
       </c>
-      <c r="O36" s="29" t="str">
-        <v>AWS ElastiCacheredis-3node-large</v>
-      </c>
-      <c r="P36" s="29" t="str">
+      <c r="O36" s="25" t="str">
         <v>cache.t3.small</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="P36" s="25">
         <v>3</v>
       </c>
-      <c r="R36" s="40">
-        <v>0</v>
-      </c>
-      <c r="S36" s="31">
-        <f>R36*VLOOKUP(O36, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="Q36" s="90">
+        <v>5</v>
+      </c>
+      <c r="R36" s="38">
+        <v>0</v>
+      </c>
+      <c r="S36" s="21">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="28" t="str">
+      <c r="E37" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F37" s="29" t="str">
+      <c r="F37" s="25" t="str">
         <v>medium-gp-mysql-redundant</v>
       </c>
-      <c r="G37" s="29" t="str">
-        <v>AWS RDSmedium-gp-mysql-redundant</v>
-      </c>
-      <c r="H37" s="29" t="str">
+      <c r="G37" s="25" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I37" s="29">
+      <c r="H37" s="25">
         <v>1</v>
       </c>
-      <c r="J37" s="30">
-        <v>0</v>
-      </c>
-      <c r="K37" s="31">
-        <f>J37*VLOOKUP(G37, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="45" t="str">
+      <c r="I37" s="25">
+        <v>19</v>
+      </c>
+      <c r="J37" s="26">
+        <v>0</v>
+      </c>
+      <c r="K37" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="39" t="str">
         <v>AWS ElastiCache</v>
       </c>
-      <c r="N37" s="46" t="str">
+      <c r="N37" s="40" t="str">
         <v>redis-5node-large</v>
       </c>
-      <c r="O37" s="46" t="str">
-        <v>AWS ElastiCacheredis-5node-large</v>
-      </c>
-      <c r="P37" s="46" t="str">
+      <c r="O37" s="40" t="str">
         <v>cache.t3.small</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="P37" s="40">
         <v>5</v>
       </c>
-      <c r="R37" s="52">
-        <v>0</v>
-      </c>
-      <c r="S37" s="48">
-        <f>R37*VLOOKUP(O37, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="Q37" s="91">
+        <v>8</v>
+      </c>
+      <c r="R37" s="45">
+        <v>0</v>
+      </c>
+      <c r="S37" s="93">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="22" t="str">
+      <c r="E38" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F38" s="23" t="str">
+      <c r="F38" s="19" t="str">
         <v>large-gp-mysql</v>
       </c>
-      <c r="G38" s="23" t="str">
-        <v>AWS RDSlarge-gp-mysql</v>
-      </c>
-      <c r="H38" s="23" t="str">
+      <c r="G38" s="19" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I38" s="23">
+      <c r="H38" s="19">
         <v>1</v>
       </c>
-      <c r="J38" s="30">
-        <v>0</v>
-      </c>
-      <c r="K38" s="25">
-        <f>J38*VLOOKUP(G38, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="I38" s="19">
+        <v>9</v>
+      </c>
+      <c r="J38" s="26">
+        <v>0</v>
+      </c>
+      <c r="K38" s="92">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="28" t="str">
+      <c r="E39" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F39" s="29" t="str">
+      <c r="F39" s="25" t="str">
         <v>large-gp-mysql-redundant</v>
       </c>
-      <c r="G39" s="29" t="str">
-        <v>AWS RDSlarge-gp-mysql-redundant</v>
-      </c>
-      <c r="H39" s="29" t="str">
+      <c r="G39" s="25" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I39" s="29">
+      <c r="H39" s="25">
         <v>1</v>
       </c>
-      <c r="J39" s="30">
-        <v>0</v>
-      </c>
-      <c r="K39" s="31">
-        <f>J39*VLOOKUP(G39, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
+      <c r="I39" s="25">
+        <v>19</v>
+      </c>
+      <c r="J39" s="26">
+        <v>0</v>
+      </c>
+      <c r="K39" s="92">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E40" s="22" t="str">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F40" s="23" t="str">
+      <c r="F40" s="19" t="str">
         <v>xlarge-gp-mysql</v>
       </c>
-      <c r="G40" s="23" t="str">
-        <v>AWS RDSxlarge-gp-mysql</v>
-      </c>
-      <c r="H40" s="23" t="str">
+      <c r="G40" s="19" t="str">
         <v>db.m5.xlarge</v>
       </c>
-      <c r="I40" s="23">
+      <c r="H40" s="19">
         <v>1</v>
       </c>
-      <c r="J40" s="30">
-        <v>0</v>
-      </c>
-      <c r="K40" s="25">
-        <f>J40*VLOOKUP(G40, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="53" t="s">
+      <c r="I40" s="19">
+        <v>19</v>
+      </c>
+      <c r="J40" s="26">
+        <v>0</v>
+      </c>
+      <c r="K40" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="53" t="s">
+      <c r="N40" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="53" t="s">
+      <c r="O40" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P40" s="53" t="s">
+      <c r="P40" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" s="53" t="s">
+      <c r="Q40" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="R40" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="53" t="s">
+      <c r="S40" s="97" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="28" t="str">
+      <c r="E41" s="24" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F41" s="29" t="str">
+      <c r="F41" s="25" t="str">
         <v>xlarge-gp-mysql-redundant</v>
       </c>
-      <c r="G41" s="29" t="str">
-        <v>AWS RDSxlarge-gp-mysql-redundant</v>
-      </c>
-      <c r="H41" s="29" t="str">
+      <c r="G41" s="25" t="str">
         <v>db.m5.xlarge</v>
       </c>
-      <c r="I41" s="29">
+      <c r="H41" s="25">
         <v>1</v>
       </c>
-      <c r="J41" s="30">
-        <v>0</v>
-      </c>
-      <c r="K41" s="31">
-        <f>J41*VLOOKUP(G41, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="N41" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="O41" s="16"/>
-      <c r="P41" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q41" s="55" t="s">
-        <v>166</v>
-      </c>
-      <c r="R41" s="57">
-        <v>300</v>
-      </c>
-      <c r="S41" s="17">
-        <f>ROUNDUP(R41/'AWS Service Prices'!N$5,0)*VLOOKUP(_xlfn.CONCAT(M41,Q41), MeteredServices, 5, FALSE)</f>
+      <c r="I41" s="25">
+        <v>37</v>
+      </c>
+      <c r="J41" s="26">
+        <v>0</v>
+      </c>
+      <c r="K41" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="90">
+        <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
+        <v>150000</v>
+      </c>
+      <c r="R41" s="95">
+        <v>10000</v>
+      </c>
+      <c r="S41" s="99">
+        <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="22" t="str">
+      <c r="E42" s="18" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F42" s="23" t="str">
+      <c r="F42" s="19" t="str">
         <v>medium-oracle-se2</v>
       </c>
-      <c r="G42" s="23" t="str">
-        <v>AWS RDSmedium-oracle-se2</v>
-      </c>
-      <c r="H42" s="23" t="str">
+      <c r="G42" s="19" t="str">
         <v>db.t3.medium</v>
       </c>
-      <c r="I42" s="23">
+      <c r="H42" s="19">
         <v>1</v>
       </c>
-      <c r="J42" s="30">
-        <v>0</v>
-      </c>
-      <c r="K42" s="25">
-        <f>J42*VLOOKUP(G42, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="N42" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="O42" s="16"/>
-      <c r="P42" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q42" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="R42" s="94">
-        <v>0</v>
-      </c>
-      <c r="S42" s="17">
-        <f>ROUNDUP(R42/'AWS Service Prices'!N$5,0)*VLOOKUP(_xlfn.CONCAT(M42,Q42), MeteredServices, 5, FALSE)</f>
-        <v>0</v>
+      <c r="I42" s="19">
+        <v>7</v>
+      </c>
+      <c r="J42" s="26">
+        <v>0</v>
+      </c>
+      <c r="K42" s="92">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N42" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="O42" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="90">
+        <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
+        <v>120</v>
+      </c>
+      <c r="R42" s="96">
+        <v>2</v>
+      </c>
+      <c r="S42" s="98">
+        <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="61" t="str">
+      <c r="E43" s="54" t="str">
         <v>AWS RDS</v>
       </c>
-      <c r="F43" s="62" t="str">
+      <c r="F43" s="55" t="str">
         <v>large-gp-sqlserver-se</v>
       </c>
-      <c r="G43" s="62" t="str">
-        <v>AWS RDSlarge-gp-sqlserver-se</v>
-      </c>
-      <c r="H43" s="62" t="str">
+      <c r="G43" s="55" t="str">
         <v>db.m5.large</v>
       </c>
-      <c r="I43" s="62">
+      <c r="H43" s="55">
         <v>1</v>
       </c>
-      <c r="J43" s="63">
-        <v>0</v>
-      </c>
-      <c r="K43" s="64">
-        <f>J43*VLOOKUP(G43, 'AWS Service Prices'!$C:$F, 4, FALSE)</f>
-        <v>0</v>
-      </c>
+      <c r="I43" s="55">
+        <v>46</v>
+      </c>
+      <c r="J43" s="56">
+        <v>0</v>
+      </c>
+      <c r="K43" s="101">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="100"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J44" s="4"/>
@@ -5497,27 +6077,37 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10 J10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="notEqual">
+  <conditionalFormatting sqref="B10 J14:J43 B15">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R41:R42">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R29">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33:R37">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R29 R33:R37">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R41:R42">
+  <conditionalFormatting sqref="J10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -5555,8 +6145,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
-        <v>174</v>
+      <c r="A1" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="B1" s="4"/>
       <c r="D1" s="4"/>
@@ -5566,11 +6156,11 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>176</v>
+      <c r="A2" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>128</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -5579,10 +6169,10 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="68">
+      <c r="A3" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="60">
         <v>3</v>
       </c>
       <c r="D3" s="4"/>
@@ -5592,10 +6182,10 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="70">
+      <c r="A4" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="62">
         <v>50</v>
       </c>
       <c r="D4" s="4"/>
@@ -5605,10 +6195,10 @@
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="67" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="68">
+      <c r="A5" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="60">
         <v>1</v>
       </c>
       <c r="D5" s="4"/>
@@ -5618,10 +6208,10 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="71">
+      <c r="A6" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="63">
         <v>0</v>
       </c>
       <c r="D6" s="4"/>
@@ -5651,561 +6241,561 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="A9" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="74" t="s">
-        <v>188</v>
+      <c r="C10" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="68">
+      <c r="A11" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="60">
         <v>50</v>
       </c>
-      <c r="C11" s="75">
-        <v>0</v>
-      </c>
-      <c r="D11" s="76">
+      <c r="C11" s="67">
+        <v>0</v>
+      </c>
+      <c r="D11" s="68">
         <f t="shared" ref="D11:D27" si="0">B11*$B$4</f>
         <v>2500</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="69">
         <v>1</v>
       </c>
-      <c r="F11" s="67" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="76">
+      <c r="F11" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="68">
         <f>D11*12</f>
         <v>30000</v>
       </c>
-      <c r="H11" s="76">
+      <c r="H11" s="68">
         <f t="shared" ref="H11:H28" si="1">G11*(1-C11)</f>
         <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" s="68">
+      <c r="A12" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="60">
         <v>100</v>
       </c>
-      <c r="C12" s="75">
-        <v>0</v>
-      </c>
-      <c r="D12" s="78">
+      <c r="C12" s="67">
+        <v>0</v>
+      </c>
+      <c r="D12" s="70">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="71">
         <v>2</v>
       </c>
-      <c r="F12" s="69" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="78">
+      <c r="F12" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="70">
         <f t="shared" ref="G12:G27" si="2">B12*$B$4*12</f>
         <v>60000</v>
       </c>
-      <c r="H12" s="78">
+      <c r="H12" s="70">
         <f t="shared" si="1"/>
         <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="68">
+      <c r="A13" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="60">
         <v>150</v>
       </c>
-      <c r="C13" s="75">
-        <v>0</v>
-      </c>
-      <c r="D13" s="76">
+      <c r="C13" s="67">
+        <v>0</v>
+      </c>
+      <c r="D13" s="68">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="69">
         <v>3</v>
       </c>
-      <c r="F13" s="67" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="76">
+      <c r="F13" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="68">
         <f t="shared" si="2"/>
         <v>90000</v>
       </c>
-      <c r="H13" s="76">
+      <c r="H13" s="68">
         <f t="shared" si="1"/>
         <v>90000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="68">
+      <c r="A14" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="60">
         <v>250</v>
       </c>
-      <c r="C14" s="75">
-        <v>0</v>
-      </c>
-      <c r="D14" s="78">
+      <c r="C14" s="67">
+        <v>0</v>
+      </c>
+      <c r="D14" s="70">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="71">
         <v>4</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="78">
+      <c r="F14" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="70">
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="70">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="68">
+      <c r="A15" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="60">
         <v>350</v>
       </c>
-      <c r="C15" s="75">
-        <v>0</v>
-      </c>
-      <c r="D15" s="76">
+      <c r="C15" s="67">
+        <v>0</v>
+      </c>
+      <c r="D15" s="68">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="E15" s="77">
+      <c r="E15" s="69">
         <v>5</v>
       </c>
-      <c r="F15" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="76">
+      <c r="F15" s="59" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" s="68">
         <f t="shared" si="2"/>
         <v>210000</v>
       </c>
-      <c r="H15" s="76">
+      <c r="H15" s="68">
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" s="68">
+      <c r="A16" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="60">
         <v>500</v>
       </c>
-      <c r="C16" s="75">
-        <v>0</v>
-      </c>
-      <c r="D16" s="78">
+      <c r="C16" s="67">
+        <v>0</v>
+      </c>
+      <c r="D16" s="70">
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="71">
         <v>6</v>
       </c>
-      <c r="F16" s="69" t="s">
-        <v>194</v>
-      </c>
-      <c r="G16" s="78">
+      <c r="F16" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="70">
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="H16" s="78">
+      <c r="H16" s="70">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="68">
+      <c r="A17" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="60">
         <v>650</v>
       </c>
-      <c r="C17" s="75">
-        <v>0</v>
-      </c>
-      <c r="D17" s="76">
+      <c r="C17" s="67">
+        <v>0</v>
+      </c>
+      <c r="D17" s="68">
         <f t="shared" si="0"/>
         <v>32500</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="69">
         <v>7</v>
       </c>
-      <c r="F17" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="76">
+      <c r="F17" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="68">
         <f t="shared" si="2"/>
         <v>390000</v>
       </c>
-      <c r="H17" s="76">
+      <c r="H17" s="68">
         <f t="shared" si="1"/>
         <v>390000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="68">
+      <c r="A18" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="60">
         <v>800</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="67">
         <v>0.05</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="70">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="E18" s="79">
+      <c r="E18" s="71">
         <v>8</v>
       </c>
-      <c r="F18" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="G18" s="78">
+      <c r="F18" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="70">
         <f t="shared" si="2"/>
         <v>480000</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="70">
         <f t="shared" si="1"/>
         <v>456000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="68">
+      <c r="A19" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="60">
         <v>1000</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="67">
         <v>0.1</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="68">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="69">
         <v>9</v>
       </c>
-      <c r="F19" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="76">
+      <c r="F19" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="68">
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="68">
         <f t="shared" si="1"/>
         <v>540000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" s="68">
+      <c r="A20" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="60">
         <v>1250</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="67">
         <v>0.15</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="70">
         <f t="shared" si="0"/>
         <v>62500</v>
       </c>
-      <c r="E20" s="79">
+      <c r="E20" s="71">
         <v>10</v>
       </c>
-      <c r="F20" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="78">
+      <c r="F20" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="70">
         <f t="shared" si="2"/>
         <v>750000</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="70">
         <f t="shared" si="1"/>
         <v>637500</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="68">
+      <c r="A21" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="60">
         <v>1500</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="67">
         <v>0.2</v>
       </c>
-      <c r="D21" s="76">
+      <c r="D21" s="68">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="69">
         <v>11</v>
       </c>
-      <c r="F21" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="G21" s="76">
+      <c r="F21" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="68">
         <f t="shared" si="2"/>
         <v>900000</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="68">
         <f t="shared" si="1"/>
         <v>720000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="68">
+      <c r="A22" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="60">
         <v>2000</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="67">
         <v>0.22</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="70">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="71">
         <v>11</v>
       </c>
-      <c r="F22" s="69" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="78">
+      <c r="F22" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="70">
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="70">
         <f t="shared" si="1"/>
         <v>936000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="B23" s="68">
+      <c r="A23" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="60">
         <v>3000</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="67">
         <v>0.24</v>
       </c>
-      <c r="D23" s="76">
+      <c r="D23" s="68">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="69">
         <v>12</v>
       </c>
-      <c r="F23" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="G23" s="76">
+      <c r="F23" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="68">
         <f t="shared" si="2"/>
         <v>1800000</v>
       </c>
-      <c r="H23" s="76">
+      <c r="H23" s="68">
         <f t="shared" si="1"/>
         <v>1368000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="68">
+      <c r="A24" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="60">
         <v>4000</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="67">
         <v>0.25</v>
       </c>
-      <c r="D24" s="78">
+      <c r="D24" s="70">
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="71">
         <v>13</v>
       </c>
-      <c r="F24" s="69" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" s="78">
+      <c r="F24" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="70">
         <f t="shared" si="2"/>
         <v>2400000</v>
       </c>
-      <c r="H24" s="78">
+      <c r="H24" s="70">
         <f t="shared" si="1"/>
         <v>1800000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="68">
+      <c r="A25" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="60">
         <v>5000</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="67">
         <v>0.25</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="68">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="69">
         <v>14</v>
       </c>
-      <c r="F25" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="G25" s="76">
+      <c r="F25" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="68">
         <f t="shared" si="2"/>
         <v>3000000</v>
       </c>
-      <c r="H25" s="76">
+      <c r="H25" s="68">
         <f t="shared" si="1"/>
         <v>2250000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="68">
+      <c r="A26" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="B26" s="60">
         <v>6000</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="67">
         <v>0.25</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="70">
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="71">
         <v>15</v>
       </c>
-      <c r="F26" s="69" t="s">
-        <v>204</v>
-      </c>
-      <c r="G26" s="78">
+      <c r="F26" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="70">
         <f t="shared" si="2"/>
         <v>3600000</v>
       </c>
-      <c r="H26" s="78">
+      <c r="H26" s="70">
         <f t="shared" si="1"/>
         <v>2700000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="68">
+      <c r="A27" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="60">
         <v>7000</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="67">
         <v>0.25</v>
       </c>
-      <c r="D27" s="76">
+      <c r="D27" s="68">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="69">
         <v>16</v>
       </c>
-      <c r="F27" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="G27" s="76">
+      <c r="F27" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="68">
         <f t="shared" si="2"/>
         <v>4200000</v>
       </c>
-      <c r="H27" s="76">
+      <c r="H27" s="68">
         <f t="shared" si="1"/>
         <v>3150000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="69" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="79">
+      <c r="A28" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="71">
         <v>999999</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="67">
         <v>0.25</v>
       </c>
-      <c r="D28" s="78">
+      <c r="D28" s="70">
         <f>1000*$B$4</f>
         <v>50000</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="61">
         <v>17</v>
       </c>
-      <c r="F28" s="69" t="s">
-        <v>207</v>
-      </c>
-      <c r="G28" s="78">
+      <c r="F28" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="70">
         <f>1000*$B$4*12</f>
         <v>600000</v>
       </c>
-      <c r="H28" s="78">
+      <c r="H28" s="70">
         <f t="shared" si="1"/>
         <v>450000</v>
       </c>
@@ -7197,1669 +7787,1489 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="2" max="5" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="65" t="s">
-        <v>211</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>212</v>
-      </c>
-      <c r="N2" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" s="65" t="s">
+      <c r="I2" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="M2" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O2" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="73">
+        <v>1</v>
+      </c>
+      <c r="E3" s="74">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="74">
+        <v>1</v>
+      </c>
+      <c r="L3" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="M3" s="73">
+        <v>100</v>
+      </c>
+      <c r="N3" s="74">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>K3*M3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="73">
+        <v>1</v>
+      </c>
+      <c r="E4" s="74">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="81">
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="74">
         <v>1</v>
       </c>
-      <c r="F3" s="82">
+      <c r="L4" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="73">
+        <v>100</v>
+      </c>
+      <c r="N4" s="74">
         <v>1</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="O4" s="87">
+        <f t="shared" ref="O4:O7" si="0">K4*M4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="73">
+        <v>1</v>
+      </c>
+      <c r="E5" s="74">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="74">
+        <v>1</v>
+      </c>
+      <c r="L5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="L3" s="82">
+      <c r="M5" s="73">
+        <v>400</v>
+      </c>
+      <c r="N5" s="74">
         <v>1</v>
       </c>
-      <c r="M3" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="81">
-        <v>100</v>
-      </c>
-      <c r="O3" s="82">
+      <c r="O5" s="87">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="73">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="81">
+      <c r="E6" s="74">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K6" s="74">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" s="74">
+        <v>150</v>
+      </c>
+      <c r="N6" s="74">
         <v>1</v>
       </c>
-      <c r="F4" s="82">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L4" s="82">
+      <c r="O6" s="87">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="73">
         <v>1</v>
       </c>
-      <c r="M4" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="81">
-        <v>100</v>
-      </c>
-      <c r="O4" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="81">
-        <v>1</v>
-      </c>
-      <c r="F5" s="82">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L5" s="82">
-        <v>1</v>
-      </c>
-      <c r="M5" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="81">
-        <v>400</v>
-      </c>
-      <c r="O5" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="81">
-        <v>1</v>
-      </c>
-      <c r="F6" s="82">
+      <c r="E7" s="74">
         <v>4</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="L6" s="82">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N6" s="82">
-        <v>150</v>
-      </c>
-      <c r="O6" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="81">
-        <v>1</v>
-      </c>
-      <c r="F7" s="82">
-        <v>4</v>
+      <c r="H7" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="L7" s="81">
+      <c r="K7" s="73">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N7" s="81">
+      <c r="L7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M7" s="73">
         <v>120</v>
       </c>
-      <c r="O7" s="82">
+      <c r="N7" s="74">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="87">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="81">
+        <v>43</v>
+      </c>
+      <c r="D8" s="73">
         <v>1</v>
       </c>
-      <c r="F8" s="82">
+      <c r="E8" s="74">
         <v>8</v>
       </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="82"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K8" s="74"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="81">
+        <v>51</v>
+      </c>
+      <c r="D9" s="73">
         <v>1</v>
       </c>
-      <c r="F9" s="82">
+      <c r="E9" s="74">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="81">
+        <v>51</v>
+      </c>
+      <c r="D10" s="73">
         <v>1</v>
       </c>
-      <c r="F10" s="82">
+      <c r="E10" s="74">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="81">
+        <v>51</v>
+      </c>
+      <c r="D11" s="73">
         <v>1</v>
       </c>
-      <c r="F11" s="82">
+      <c r="E11" s="74">
         <v>10</v>
       </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K11" s="73"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="81">
+        <v>51</v>
+      </c>
+      <c r="D12" s="73">
         <v>1</v>
       </c>
-      <c r="F12" s="82">
+      <c r="E12" s="74">
         <v>20</v>
       </c>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="82"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="73"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="81">
+        <v>65</v>
+      </c>
+      <c r="D13" s="73">
         <v>1</v>
       </c>
-      <c r="F13" s="82">
+      <c r="E13" s="74">
         <v>20</v>
       </c>
+      <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="82"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K13" s="74"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="81">
+        <v>65</v>
+      </c>
+      <c r="D14" s="73">
         <v>1</v>
       </c>
-      <c r="F14" s="82">
+      <c r="E14" s="74">
         <v>39</v>
       </c>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="82"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K14" s="74"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="81">
+        <v>71</v>
+      </c>
+      <c r="D15" s="73">
         <v>1</v>
       </c>
-      <c r="F15" s="82">
+      <c r="E15" s="74">
         <v>39</v>
       </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="82"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K15" s="74"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="74"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="81">
+        <v>71</v>
+      </c>
+      <c r="D16" s="73">
         <v>1</v>
       </c>
-      <c r="F16" s="82">
+      <c r="E16" s="74">
         <v>78</v>
       </c>
+      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="82"/>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K16" s="74"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="73">
+        <v>1</v>
+      </c>
+      <c r="E17" s="74">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="81">
-        <v>1</v>
-      </c>
-      <c r="F17" s="82">
-        <v>17</v>
-      </c>
+      <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="82"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K17" s="73"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="74"/>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="81">
+        <v>79</v>
+      </c>
+      <c r="D18" s="73">
         <v>1</v>
       </c>
-      <c r="F18" s="82">
+      <c r="E18" s="74">
         <v>34</v>
       </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="82"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K18" s="73"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="81">
+        <v>31</v>
+      </c>
+      <c r="D19" s="73">
         <v>1</v>
       </c>
-      <c r="F19" s="82">
+      <c r="E19" s="74">
         <v>1</v>
       </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="82"/>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K19" s="73"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="81">
+        <v>31</v>
+      </c>
+      <c r="D20" s="73">
         <v>1</v>
       </c>
-      <c r="F20" s="82">
+      <c r="E20" s="74">
         <v>2</v>
       </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="73"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="81">
+        <v>37</v>
+      </c>
+      <c r="D21" s="73">
         <v>1</v>
       </c>
-      <c r="F21" s="82">
+      <c r="E21" s="74">
         <v>2</v>
       </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="82"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K21" s="73"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="74"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="81">
+        <v>37</v>
+      </c>
+      <c r="D22" s="73">
         <v>1</v>
       </c>
-      <c r="F22" s="82">
+      <c r="E22" s="74">
         <v>4</v>
       </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="82"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="73"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="81">
+        <v>43</v>
+      </c>
+      <c r="D23" s="73">
         <v>1</v>
       </c>
-      <c r="F23" s="82">
+      <c r="E23" s="74">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="81">
+        <v>43</v>
+      </c>
+      <c r="D24" s="73">
         <v>1</v>
       </c>
-      <c r="F24" s="82">
+      <c r="E24" s="74">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="81">
+        <v>51</v>
+      </c>
+      <c r="D25" s="73">
         <v>1</v>
       </c>
-      <c r="F25" s="82">
+      <c r="E25" s="74">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="81">
+        <v>51</v>
+      </c>
+      <c r="D26" s="73">
         <v>1</v>
       </c>
-      <c r="F26" s="82">
+      <c r="E26" s="74">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="81">
+        <v>51</v>
+      </c>
+      <c r="D27" s="73">
         <v>1</v>
       </c>
-      <c r="F27" s="82">
+      <c r="E27" s="74">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="81">
+        <v>51</v>
+      </c>
+      <c r="D28" s="73">
         <v>1</v>
       </c>
-      <c r="F28" s="82">
+      <c r="E28" s="74">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="73">
+        <v>1</v>
+      </c>
+      <c r="E29" s="74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="73">
+        <v>1</v>
+      </c>
+      <c r="E30" s="74">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="73">
+        <v>1</v>
+      </c>
+      <c r="E31" s="74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="73">
+        <v>1</v>
+      </c>
+      <c r="E32" s="74">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="73">
+        <v>1</v>
+      </c>
+      <c r="E33" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="73">
+        <v>5</v>
+      </c>
+      <c r="E34" s="74">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="73">
+        <v>7</v>
+      </c>
+      <c r="E35" s="74">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="73">
+        <v>5</v>
+      </c>
+      <c r="E36" s="74">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="73">
+        <v>7</v>
+      </c>
+      <c r="E37" s="74">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="73">
+        <v>5</v>
+      </c>
+      <c r="E38" s="74">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="73">
+        <v>7</v>
+      </c>
+      <c r="E39" s="74">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="73">
+        <v>5</v>
+      </c>
+      <c r="E40" s="74">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="73">
+        <v>7</v>
+      </c>
+      <c r="E41" s="74">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="73">
+        <v>5</v>
+      </c>
+      <c r="E42" s="74">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="73">
+        <v>7</v>
+      </c>
+      <c r="E43" s="74">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="73">
+        <v>1</v>
+      </c>
+      <c r="E44" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="73">
+        <v>3</v>
+      </c>
+      <c r="E45" s="74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="73">
+        <v>5</v>
+      </c>
+      <c r="E46" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="73">
+        <v>3</v>
+      </c>
+      <c r="E47" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="73">
+        <v>5</v>
+      </c>
+      <c r="E48" s="74">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="81">
-        <v>1</v>
-      </c>
-      <c r="F29" s="82">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="81">
-        <v>1</v>
-      </c>
-      <c r="F30" s="82">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="81">
-        <v>1</v>
-      </c>
-      <c r="F31" s="82">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="81">
-        <v>1</v>
-      </c>
-      <c r="F32" s="82">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="81">
-        <v>1</v>
-      </c>
-      <c r="F33" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="81">
-        <v>5</v>
-      </c>
-      <c r="F34" s="82">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="81">
-        <v>7</v>
-      </c>
-      <c r="F35" s="82">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="81">
-        <v>5</v>
-      </c>
-      <c r="F36" s="82">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" s="81">
-        <v>7</v>
-      </c>
-      <c r="F37" s="82">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="81">
-        <v>5</v>
-      </c>
-      <c r="F38" s="82">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="81">
-        <v>7</v>
-      </c>
-      <c r="F39" s="82">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="81">
-        <v>5</v>
-      </c>
-      <c r="F40" s="82">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="81">
-        <v>7</v>
-      </c>
-      <c r="F41" s="82">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="81">
-        <v>5</v>
-      </c>
-      <c r="F42" s="82">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="81">
-        <v>7</v>
-      </c>
-      <c r="F43" s="82">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="81">
-        <v>1</v>
-      </c>
-      <c r="F44" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="81">
-        <v>3</v>
-      </c>
-      <c r="F45" s="82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="81">
-        <v>5</v>
-      </c>
-      <c r="F46" s="82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="81">
-        <v>3</v>
-      </c>
-      <c r="F47" s="82">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E48" s="81">
-        <v>5</v>
-      </c>
-      <c r="F48" s="82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="4" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="B56" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="82"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="82"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D58" s="73"/>
+      <c r="E58" s="74"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="82"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D59" s="73"/>
+      <c r="E59" s="74"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="82"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="82"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D61" s="73"/>
+      <c r="E61" s="74"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="82"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D62" s="73"/>
+      <c r="E62" s="74"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D63" s="73"/>
+      <c r="E63" s="74"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="82"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D64" s="73"/>
+      <c r="E64" s="74"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="82"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="81"/>
-      <c r="F66" s="82"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="81"/>
-      <c r="F67" s="82"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D67" s="73"/>
+      <c r="E67" s="74"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="82"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D68" s="73"/>
+      <c r="E68" s="74"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="81"/>
-      <c r="F69" s="82"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="81"/>
-      <c r="F70" s="82"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D70" s="73"/>
+      <c r="E70" s="74"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="82"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D71" s="73"/>
+      <c r="E71" s="74"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="81"/>
-      <c r="F72" s="82"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D72" s="73"/>
+      <c r="E72" s="74"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="82"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D73" s="73"/>
+      <c r="E73" s="74"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="81"/>
-      <c r="F74" s="82"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D74" s="73"/>
+      <c r="E74" s="74"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="82"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D75" s="73"/>
+      <c r="E75" s="74"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="81"/>
-      <c r="F76" s="82"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D76" s="73"/>
+      <c r="E76" s="74"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="82"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D77" s="73"/>
+      <c r="E77" s="74"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="81"/>
-      <c r="F78" s="82"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D78" s="73"/>
+      <c r="E78" s="74"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="81"/>
-      <c r="F79" s="82"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D79" s="73"/>
+      <c r="E79" s="74"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="82"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D80" s="73"/>
+      <c r="E80" s="74"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="81"/>
-      <c r="F81" s="82"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D81" s="73"/>
+      <c r="E81" s="74"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="82"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D82" s="73"/>
+      <c r="E82" s="74"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="81"/>
-      <c r="F83" s="82"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D83" s="73"/>
+      <c r="E83" s="74"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="81"/>
-      <c r="F84" s="82"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D84" s="73"/>
+      <c r="E84" s="74"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="81"/>
-      <c r="F85" s="82"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D85" s="73"/>
+      <c r="E85" s="74"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="82"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D86" s="73"/>
+      <c r="E86" s="74"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="81"/>
-      <c r="F87" s="82"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D87" s="73"/>
+      <c r="E87" s="74"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="82"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D88" s="73"/>
+      <c r="E88" s="74"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="81"/>
-      <c r="F89" s="82"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D89" s="73"/>
+      <c r="E89" s="74"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="81"/>
-      <c r="F90" s="82"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D90" s="73"/>
+      <c r="E90" s="74"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="81"/>
-      <c r="F91" s="82"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D91" s="73"/>
+      <c r="E91" s="74"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="81"/>
-      <c r="F92" s="82"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D92" s="73"/>
+      <c r="E92" s="74"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="82"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="73"/>
+      <c r="E93" s="74"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="82"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="74"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/_assets/documents/cloud-gov-cost-estimator.xlsx
+++ b/_assets/documents/cloud-gov-cost-estimator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterdburkholder/Projects/cloud-gov/cg-site/_assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CC62A2-CA76-6647-8B57-70FB1B3E5486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F2CCC5-A8FF-6241-AE0E-4F14A78F5FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="47840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="190">
   <si>
     <t>Estimated Price</t>
   </si>
@@ -624,19 +624,42 @@
 - For services that AWS bills hourly, we bill based on the total instances operating at the end of the month. 
 - To create an estimate, average your usage over the month.</t>
   </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Add versions</t>
+  </si>
+  <si>
+    <t>Fix metered calcs</t>
+  </si>
+  <si>
+    <t>Add unit/credit info</t>
+  </si>
+  <si>
+    <t>Initial version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
     <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -696,8 +719,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,6 +786,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1395,10 +1437,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,10 +1676,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1669,22 +1708,30 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="69">
     <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -1771,281 +1818,18 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <u/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF284E3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
+      <border outline="0">
         <bottom style="thin">
-          <color rgb="FF284E3F"/>
+          <color rgb="FF4A535C"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-        <family val="2"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF284E3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF284E3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF284E3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFFFFFFF"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF284E3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF284E3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFFFF"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFFFF"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF284E3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2077,6 +1861,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2348,6 +2133,63 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF284E3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
       <fill>
         <patternFill patternType="solid">
@@ -2480,6 +2322,36 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+        <family val="2"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0\ &quot;Gb&quot;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2495,11 +2367,165 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0\ &quot;Hrs&quot;"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFFFFFFF"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF284E3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFFFF"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF284E3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2988,54 +3014,54 @@
   </dxfs>
   <tableStyles count="10">
     <tableStyle name="Worksheet-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="69"/>
-      <tableStyleElement type="firstRowStripe" dxfId="68"/>
-      <tableStyleElement type="secondRowStripe" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="68"/>
+      <tableStyleElement type="firstRowStripe" dxfId="67"/>
+      <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="66"/>
-      <tableStyleElement type="firstRowStripe" dxfId="65"/>
-      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="firstRowStripe" dxfId="64"/>
+      <tableStyleElement type="secondRowStripe" dxfId="63"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 3" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
-      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
+      <tableStyleElement type="firstRowStripe" dxfId="61"/>
+      <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 4" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="59"/>
+      <tableStyleElement type="firstRowStripe" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 5" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="firstRowStripe" dxfId="55"/>
+      <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 6" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="firstRowStripe" dxfId="52"/>
+      <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 7" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="50"/>
+      <tableStyleElement type="firstRowStripe" dxfId="49"/>
+      <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
     <tableStyle name="Worksheet-style 8" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF07000000}">
-      <tableStyleElement type="headerRow" dxfId="48"/>
-      <tableStyleElement type="firstRowStripe" dxfId="47"/>
-      <tableStyleElement type="secondRowStripe" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="47"/>
+      <tableStyleElement type="firstRowStripe" dxfId="46"/>
+      <tableStyleElement type="secondRowStripe" dxfId="45"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF08000000}">
-      <tableStyleElement type="headerRow" dxfId="45"/>
-      <tableStyleElement type="firstRowStripe" dxfId="44"/>
-      <tableStyleElement type="secondRowStripe" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="firstRowStripe" dxfId="43"/>
+      <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
     <tableStyle name="Cloud.gov Tiers-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF09000000}">
-      <tableStyleElement type="headerRow" dxfId="42"/>
-      <tableStyleElement type="firstRowStripe" dxfId="41"/>
-      <tableStyleElement type="secondRowStripe" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="41"/>
+      <tableStyleElement type="firstRowStripe" dxfId="40"/>
+      <tableStyleElement type="secondRowStripe" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3052,20 +3078,20 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A4:F5">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Credits" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tier Name" dataDxfId="37">
       <calculatedColumnFormula array="1">_xlfn.LET(_xlpm.Tier, VLOOKUP(MIN(IF('Cloud.gov Tiers'!$B$11:$B$28&gt;=A5, 'Cloud.gov Tiers'!$B$11:$B$28)), 'Cloud.gov Tiers'!$B$11:$E$28, 4, FALSE), VLOOKUP(_xlpm.Tier, 'Cloud.gov Tiers'!$E$10:$F$28, 2, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="37">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Credits Remaining_x000a_in Tier" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Tier Name]], 'Cloud.gov Tiers'!A11:B27, 2,FALSE)-Table_1[[#This Row],[Credits]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="36">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Yearly_x000a_Platform Total" dataDxfId="35">
       <calculatedColumnFormula>IF(B5="Custom", ROUNDUP(A5/1000,0)*'Cloud.gov Tiers'!$H$28, VLOOKUP(B5, 'Cloud.gov Tiers'!$F$11:$H$27, 3, FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Support Total" dataDxfId="34">
       <calculatedColumnFormula>C15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="34">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name=" YearlyTotal Cost" dataDxfId="33">
       <calculatedColumnFormula>D5+E5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3074,6 +3100,16 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_9" displayName="Table_9" ref="A2:B6">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="Cloud.gov Tiers-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_10" displayName="Table_10" ref="A10:H28">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Tier"/>
@@ -3093,7 +3129,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A9:C10">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Resource"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantity" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Credits"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3103,13 +3139,13 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="E9:K10">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Offering" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Description" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Units" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Dimension" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="GB per credit" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Quantity (GB)" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Credits" dataDxfId="25">
       <calculatedColumnFormula>ROUNDUP(Table_3[[#This Row],[Quantity (GB)]]/Table_3[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3123,12 +3159,12 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Offering"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Units"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="29">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Dimension" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{CDA60C5E-AE6A-324F-8F61-A71F1A0A8966}" name="GB per credit" dataDxfId="23">
       <calculatedColumnFormula>'AWS Service Prices'!K5*'AWS Service Prices'!M5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="30">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quantity (GB)" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Credits" dataDxfId="21">
       <calculatedColumnFormula>ROUNDUP(Table_4[[#This Row],[Quantity (GB)]]/Table_4[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3140,7 +3176,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="A14:C15">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Rate/Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Hours" dataDxfId="20"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="Worksheet-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -3150,15 +3186,15 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_6" displayName="Table_6" ref="M14:S15" dataDxfId="19">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="22">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Offering" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Units" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Dimension" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{807927EE-801B-8148-9BA1-5FE9186170F2}" name="GB per credit" dataDxfId="14">
       <calculatedColumnFormula>'AWS Service Prices'!K4*'AWS Service Prices'!M4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Quantity (GB)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Credits" dataDxfId="12">
       <calculatedColumnFormula>ROUNDUP(Table_6[[#This Row],[Quantity (GB)]]/Table_6[[#This Row],[GB per credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3183,11 +3219,11 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Units"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Dimension"/>
-    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{A30E673E-5221-9442-BA33-5D5CC8E273B5}" name="Units/Credit" dataDxfId="11">
       <calculatedColumnFormula>'AWS Service Prices'!K6*'AWS Service Prices'!M6</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Quantity"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="18">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Credits" dataDxfId="10">
       <calculatedColumnFormula>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3196,12 +3232,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_9" displayName="Table_9" ref="A2:B6">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variable"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Value"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}" name="Table12" displayName="Table12" ref="A39:C49" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="9">
+  <autoFilter ref="A39:C49" xr:uid="{834417E1-38BD-134B-B77F-84AFCA28E8D3}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6F594386-932F-3745-B570-1D36152A4BED}" name="Version" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{98BA1600-A7B8-2742-AF88-1C465CCF83D5}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{A3A06425-E98A-E042-A27B-C92165F08BCF}" name="Notes"/>
   </tableColumns>
-  <tableStyleInfo name="Cloud.gov Tiers-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Cloud.gov Tiers-style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3410,14 +3448,14 @@
   <dimension ref="A1:Y1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="30.83203125" customWidth="1"/>
@@ -3440,14 +3478,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="98.25" customHeight="1" x14ac:dyDescent="1.05">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3703,7 +3741,7 @@
       <c r="J14" s="20">
         <v>2</v>
       </c>
-      <c r="K14" s="92">
+      <c r="K14" s="90">
         <f>I14*J14</f>
         <v>2</v>
       </c>
@@ -3758,7 +3796,7 @@
       <c r="J15" s="26">
         <v>0</v>
       </c>
-      <c r="K15" s="92">
+      <c r="K15" s="90">
         <f t="shared" ref="K15:K43" si="0">I15*J15</f>
         <v>0</v>
       </c>
@@ -3805,7 +3843,7 @@
       <c r="J16" s="26">
         <v>0</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3832,7 +3870,7 @@
       <c r="J17" s="26">
         <v>1</v>
       </c>
-      <c r="K17" s="92">
+      <c r="K17" s="90">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3866,7 +3904,7 @@
       <c r="J18" s="26">
         <v>0</v>
       </c>
-      <c r="K18" s="92">
+      <c r="K18" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3918,7 +3956,7 @@
       <c r="J19" s="26">
         <v>0</v>
       </c>
-      <c r="K19" s="92">
+      <c r="K19" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3972,7 +4010,7 @@
       <c r="J20" s="26">
         <v>0</v>
       </c>
-      <c r="K20" s="92">
+      <c r="K20" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4025,7 +4063,7 @@
       <c r="J21" s="26">
         <v>0</v>
       </c>
-      <c r="K21" s="92">
+      <c r="K21" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4078,7 +4116,7 @@
       <c r="J22" s="35">
         <v>0</v>
       </c>
-      <c r="K22" s="92">
+      <c r="K22" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4131,7 +4169,7 @@
       <c r="J23" s="26">
         <v>0</v>
       </c>
-      <c r="K23" s="92">
+      <c r="K23" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4177,7 +4215,7 @@
       <c r="J24" s="26">
         <v>0</v>
       </c>
-      <c r="K24" s="92">
+      <c r="K24" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4223,7 +4261,7 @@
       <c r="J25" s="26">
         <v>0</v>
       </c>
-      <c r="K25" s="92">
+      <c r="K25" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4272,7 +4310,7 @@
       <c r="J26" s="26">
         <v>0</v>
       </c>
-      <c r="K26" s="92">
+      <c r="K26" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4324,7 +4362,7 @@
       <c r="J27" s="26">
         <v>0</v>
       </c>
-      <c r="K27" s="92">
+      <c r="K27" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4377,7 +4415,7 @@
       <c r="J28" s="26">
         <v>0</v>
       </c>
-      <c r="K28" s="92">
+      <c r="K28" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4429,7 +4467,7 @@
       <c r="J29" s="26">
         <v>0</v>
       </c>
-      <c r="K29" s="92">
+      <c r="K29" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4451,11 +4489,11 @@
       <c r="R29" s="41">
         <v>0</v>
       </c>
-      <c r="S29" s="93">
+      <c r="S29" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29" s="94"/>
+      <c r="T29" s="92"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="str">
@@ -4482,7 +4520,7 @@
       <c r="J30" s="43">
         <v>0</v>
       </c>
-      <c r="K30" s="92">
+      <c r="K30" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4514,7 +4552,7 @@
       <c r="J31" s="26">
         <v>0</v>
       </c>
-      <c r="K31" s="92">
+      <c r="K31" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4552,7 +4590,7 @@
       <c r="J32" s="26">
         <v>0</v>
       </c>
-      <c r="K32" s="92">
+      <c r="K32" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4603,7 +4641,7 @@
       <c r="J33" s="26">
         <v>0</v>
       </c>
-      <c r="K33" s="92">
+      <c r="K33" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4620,7 +4658,7 @@
       <c r="P33" s="48">
         <v>1</v>
       </c>
-      <c r="Q33" s="90">
+      <c r="Q33" s="88">
         <v>1</v>
       </c>
       <c r="R33" s="50">
@@ -4656,7 +4694,7 @@
       <c r="J34" s="26">
         <v>0</v>
       </c>
-      <c r="K34" s="92">
+      <c r="K34" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4672,7 +4710,7 @@
       <c r="P34" s="25">
         <v>3</v>
       </c>
-      <c r="Q34" s="90">
+      <c r="Q34" s="88">
         <v>2</v>
       </c>
       <c r="R34" s="38">
@@ -4708,7 +4746,7 @@
       <c r="J35" s="35">
         <v>0</v>
       </c>
-      <c r="K35" s="92">
+      <c r="K35" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4724,7 +4762,7 @@
       <c r="P35" s="48">
         <v>5</v>
       </c>
-      <c r="Q35" s="90">
+      <c r="Q35" s="88">
         <v>4</v>
       </c>
       <c r="R35" s="38">
@@ -4758,7 +4796,7 @@
       <c r="J36" s="26">
         <v>0</v>
       </c>
-      <c r="K36" s="92">
+      <c r="K36" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4774,7 +4812,7 @@
       <c r="P36" s="25">
         <v>3</v>
       </c>
-      <c r="Q36" s="90">
+      <c r="Q36" s="88">
         <v>5</v>
       </c>
       <c r="R36" s="38">
@@ -4804,7 +4842,7 @@
       <c r="J37" s="26">
         <v>0</v>
       </c>
-      <c r="K37" s="92">
+      <c r="K37" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4820,13 +4858,13 @@
       <c r="P37" s="40">
         <v>5</v>
       </c>
-      <c r="Q37" s="91">
+      <c r="Q37" s="89">
         <v>8</v>
       </c>
       <c r="R37" s="45">
         <v>0</v>
       </c>
-      <c r="S37" s="93">
+      <c r="S37" s="91">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4850,12 +4888,21 @@
       <c r="J38" s="26">
         <v>0</v>
       </c>
-      <c r="K38" s="92">
+      <c r="K38" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="106" t="s">
+        <v>185</v>
+      </c>
       <c r="E39" s="24" t="str">
         <v>AWS RDS</v>
       </c>
@@ -4874,7 +4921,7 @@
       <c r="J39" s="26">
         <v>0</v>
       </c>
-      <c r="K39" s="92">
+      <c r="K39" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4883,6 +4930,15 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="107">
+        <v>1</v>
+      </c>
+      <c r="B40" s="103">
+        <v>45748</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>189</v>
+      </c>
       <c r="E40" s="18" t="str">
         <v>AWS RDS</v>
       </c>
@@ -4901,7 +4957,7 @@
       <c r="J40" s="26">
         <v>0</v>
       </c>
-      <c r="K40" s="92">
+      <c r="K40" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4923,11 +4979,20 @@
       <c r="R40" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="S40" s="97" t="s">
+      <c r="S40" s="95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="107">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B41" s="103">
+        <v>45749</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>186</v>
+      </c>
       <c r="E41" s="24" t="str">
         <v>AWS RDS</v>
       </c>
@@ -4946,7 +5011,7 @@
       <c r="J41" s="26">
         <v>0</v>
       </c>
-      <c r="K41" s="92">
+      <c r="K41" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4962,19 +5027,23 @@
       <c r="P41" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="90">
+      <c r="Q41" s="88">
         <f>'AWS Service Prices'!K6*'AWS Service Prices'!M6</f>
         <v>150000</v>
       </c>
-      <c r="R41" s="95">
+      <c r="R41" s="93">
         <v>10000</v>
       </c>
-      <c r="S41" s="99">
+      <c r="S41" s="97">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="107"/>
+      <c r="C42" s="102" t="s">
+        <v>187</v>
+      </c>
       <c r="E42" s="18" t="str">
         <v>AWS RDS</v>
       </c>
@@ -4993,7 +5062,7 @@
       <c r="J42" s="26">
         <v>0</v>
       </c>
-      <c r="K42" s="92">
+      <c r="K42" s="90">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5009,19 +5078,23 @@
       <c r="P42" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="Q42" s="90">
+      <c r="Q42" s="88">
         <f>'AWS Service Prices'!K7*'AWS Service Prices'!M7</f>
         <v>120</v>
       </c>
-      <c r="R42" s="96">
+      <c r="R42" s="94">
         <v>2</v>
       </c>
-      <c r="S42" s="98">
+      <c r="S42" s="96">
         <f>ROUNDUP(Table_8[[#This Row],[Quantity]]/Table_8[[#This Row],[Units/Credit]],0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="107"/>
+      <c r="C43" s="102" t="s">
+        <v>188</v>
+      </c>
       <c r="E43" s="54" t="str">
         <v>AWS RDS</v>
       </c>
@@ -5040,73 +5113,80 @@
       <c r="J43" s="56">
         <v>0</v>
       </c>
-      <c r="K43" s="101">
+      <c r="K43" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="100"/>
+      <c r="Q43" s="98"/>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="107"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="107"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="107"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="107"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="107"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="107"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="50" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="107"/>
       <c r="J50" s="4"/>
     </row>
-    <row r="51" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J52" s="4"/>
     </row>
-    <row r="53" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J53" s="4"/>
     </row>
-    <row r="54" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J54" s="4"/>
     </row>
-    <row r="55" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J55" s="4"/>
     </row>
-    <row r="56" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J58" s="4"/>
     </row>
-    <row r="59" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J59" s="4"/>
     </row>
-    <row r="60" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J60" s="4"/>
     </row>
-    <row r="61" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J61" s="4"/>
     </row>
-    <row r="62" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J62" s="4"/>
     </row>
-    <row r="63" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J63" s="4"/>
     </row>
-    <row r="64" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6078,43 +6158,43 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B10 J14:J43 B15">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R29">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R33:R37">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41:R42">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19:R29">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R33:R37">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <tableParts count="8">
+  <tableParts count="9">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -6123,6 +6203,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7789,7 +7870,7 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:M3"/>
     </sheetView>
   </sheetViews>
